--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -1000,7 +1000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1483,10 +1483,16 @@
       <c r="E16" s="1">
         <v>14</v>
       </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>36</v>
+      </c>
       <c r="N16" s="15"/>
       <c r="O16" s="17">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="P16" s="5"/>
     </row>
@@ -1497,10 +1503,19 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>108</v>
+      </c>
       <c r="N17" s="15"/>
       <c r="O17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="P17" s="5"/>
     </row>
@@ -1511,10 +1526,13 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P18" s="5"/>
     </row>
@@ -1525,10 +1543,16 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
       <c r="N19" s="15"/>
       <c r="O19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P19" s="5"/>
     </row>
@@ -1662,23 +1686,23 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22">
         <f>SUM(C2:C27)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D28" s="22">
         <f>SUM(D2:D27)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" ref="G28:N28" si="1">SUM(G2:G27)</f>
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
@@ -1710,7 +1734,7 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2359.98</v>
+        <v>2553.98</v>
       </c>
       <c r="P28" s="5"/>
     </row>
@@ -1733,7 +1757,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>1649.98</v>
+        <v>1843.98</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="2月花费" sheetId="5" r:id="rId1"/>
     <sheet name="模板" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0">
+    <comment ref="K11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,6 +197,21 @@
             <charset val="134"/>
           </rPr>
           <t>雪糕</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>聚餐</t>
         </r>
       </text>
     </comment>
@@ -299,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -705,6 +720,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -752,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,9 +803,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,6 +855,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,24 +1050,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1091,7 +1143,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1120,7 +1172,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1137,7 +1189,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -1166,7 +1218,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -1195,7 +1247,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -1229,7 +1281,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -1261,7 +1313,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -1293,7 +1345,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -1319,7 +1371,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -1339,7 +1391,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -1368,7 +1420,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -1400,7 +1452,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -1435,7 +1487,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -1467,7 +1519,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -1496,7 +1548,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -1519,7 +1571,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -1536,7 +1588,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -1549,14 +1601,23 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>12</v>
+      </c>
       <c r="N19" s="15"/>
       <c r="O19" s="17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
@@ -1570,7 +1631,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
@@ -1584,7 +1645,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
@@ -1598,7 +1659,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -1612,7 +1673,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -1626,7 +1687,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -1640,7 +1701,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -1654,7 +1715,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -1679,7 +1740,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
@@ -1694,15 +1755,15 @@
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" ref="G28:N28" si="1">SUM(G2:G27)</f>
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
@@ -1734,11 +1795,11 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2553.98</v>
+        <v>2581.98</v>
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1757,7 +1818,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>1843.98</v>
+        <v>1871.98</v>
       </c>
     </row>
   </sheetData>
@@ -1777,19 +1838,19 @@
       <selection pane="bottomLeft" activeCell="G19" activeCellId="1" sqref="G15 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1850,7 +1911,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1864,7 +1925,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1878,7 +1939,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -1892,7 +1953,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -1906,7 +1967,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -1920,7 +1981,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -1934,7 +1995,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -1948,7 +2009,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -1962,7 +2023,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -1976,7 +2037,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -1990,7 +2051,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -2004,7 +2065,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -2018,7 +2079,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -2032,7 +2093,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -2046,7 +2107,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -2060,7 +2121,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -2074,7 +2135,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -2088,7 +2149,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
@@ -2102,7 +2163,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
@@ -2116,7 +2177,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
@@ -2130,7 +2191,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -2144,7 +2205,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -2158,7 +2219,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -2172,7 +2233,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -2186,7 +2247,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -2211,7 +2272,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
@@ -2270,7 +2331,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2月花费" sheetId="5" r:id="rId1"/>
     <sheet name="模板" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0" shapeId="0">
+    <comment ref="K11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -770,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,26 +803,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,23 +838,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1050,24 +1016,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1143,7 +1109,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1172,7 +1138,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1189,7 +1155,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -1218,7 +1184,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -1247,7 +1213,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -1281,7 +1247,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -1313,7 +1279,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -1345,7 +1311,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -1371,7 +1337,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -1391,7 +1357,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -1420,7 +1386,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -1452,7 +1418,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -1487,7 +1453,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -1519,7 +1485,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -1548,7 +1514,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -1571,7 +1537,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -1588,7 +1554,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -1617,21 +1583,30 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12</v>
+      </c>
       <c r="N20" s="15"/>
       <c r="O20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
@@ -1645,7 +1620,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
@@ -1659,7 +1634,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -1673,7 +1648,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -1687,7 +1662,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -1701,7 +1676,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -1715,7 +1690,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -1740,22 +1715,22 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22">
         <f>SUM(C2:C27)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D28" s="22">
         <f>SUM(D2:D27)</f>
-        <v>40</v>
+        <v>45.5</v>
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
@@ -1795,11 +1770,11 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2581.98</v>
+        <v>2605.48</v>
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1818,7 +1793,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>1871.98</v>
+        <v>1895.48</v>
       </c>
     </row>
   </sheetData>
@@ -1838,19 +1813,19 @@
       <selection pane="bottomLeft" activeCell="G19" activeCellId="1" sqref="G15 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1911,7 +1886,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1925,7 +1900,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1939,7 +1914,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -1953,7 +1928,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -1967,7 +1942,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -1981,7 +1956,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -1995,7 +1970,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -2009,7 +1984,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -2023,7 +1998,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -2037,7 +2012,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -2051,7 +2026,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -2065,7 +2040,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -2079,7 +2054,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -2093,7 +2068,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -2107,7 +2082,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -2121,7 +2096,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -2135,7 +2110,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -2149,7 +2124,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
@@ -2163,7 +2138,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
@@ -2177,7 +2152,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
@@ -2191,7 +2166,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -2205,7 +2180,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -2219,7 +2194,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -2233,7 +2208,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -2247,7 +2222,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -2272,7 +2247,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
@@ -2331,7 +2306,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="2月花费" sheetId="5" r:id="rId1"/>
     <sheet name="模板" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0">
+    <comment ref="K11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,6 +212,37 @@
             <charset val="134"/>
           </rPr>
           <t>聚餐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>鞋子:198
+袜子:49</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>酒</t>
         </r>
       </text>
     </comment>
@@ -314,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -770,7 +801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,9 +834,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,6 +886,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1017,23 +1082,23 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1109,7 +1174,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1138,7 +1203,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1155,7 +1220,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -1184,7 +1249,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -1213,7 +1278,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -1247,7 +1312,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -1279,7 +1344,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -1311,7 +1376,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -1337,7 +1402,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -1357,7 +1422,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -1386,7 +1451,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -1418,7 +1483,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -1453,7 +1518,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -1485,7 +1550,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -1514,7 +1579,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -1537,7 +1602,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -1554,7 +1619,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -1583,7 +1648,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
@@ -1599,28 +1664,37 @@
       <c r="E20" s="1">
         <v>12</v>
       </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
       <c r="N20" s="15"/>
       <c r="O20" s="17">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H21" s="1">
+        <v>247</v>
+      </c>
+      <c r="I21" s="1">
+        <v>60</v>
+      </c>
       <c r="N21" s="15"/>
       <c r="O21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
@@ -1634,7 +1708,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -1648,7 +1722,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -1662,7 +1736,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -1676,7 +1750,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -1690,7 +1764,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -1715,7 +1789,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
@@ -1734,7 +1808,7 @@
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" ref="G28:N28" si="1">SUM(G2:G27)</f>
@@ -1742,11 +1816,11 @@
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>132.5</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="1"/>
@@ -1770,11 +1844,11 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2605.48</v>
+        <v>2914.48</v>
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1793,7 +1867,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>1895.48</v>
+        <v>2204.48</v>
       </c>
     </row>
   </sheetData>
@@ -1813,19 +1887,19 @@
       <selection pane="bottomLeft" activeCell="G19" activeCellId="1" sqref="G15 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1886,7 +1960,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1900,7 +1974,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1914,7 +1988,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -1928,7 +2002,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -1942,7 +2016,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -1956,7 +2030,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -1970,7 +2044,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -1984,7 +2058,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -1998,7 +2072,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -2012,7 +2086,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -2026,7 +2100,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -2040,7 +2114,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -2054,7 +2128,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -2068,7 +2142,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -2082,7 +2156,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -2096,7 +2170,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -2110,7 +2184,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -2124,7 +2198,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
@@ -2138,7 +2212,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
@@ -2152,7 +2226,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
@@ -2166,7 +2240,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -2180,7 +2254,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -2194,7 +2268,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -2208,7 +2282,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -2222,7 +2296,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -2247,7 +2321,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2380,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2月花费" sheetId="5" r:id="rId1"/>
     <sheet name="模板" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0" shapeId="0">
+    <comment ref="K11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0">
+    <comment ref="I21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -801,7 +801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,26 +834,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,23 +869,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1083,22 +1049,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1174,7 +1140,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1203,7 +1169,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1220,7 +1186,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -1249,7 +1215,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -1278,7 +1244,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -1312,7 +1278,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -1344,7 +1310,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -1376,7 +1342,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -1402,7 +1368,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -1422,7 +1388,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -1451,7 +1417,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -1483,7 +1449,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -1518,7 +1484,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -1550,7 +1516,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -1579,7 +1545,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -1602,7 +1568,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -1619,7 +1585,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -1648,7 +1614,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
@@ -1674,7 +1640,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
@@ -1694,21 +1660,27 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
       <c r="N22" s="15"/>
       <c r="O22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -1722,7 +1694,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -1736,7 +1708,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -1750,7 +1722,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -1764,7 +1736,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -1789,18 +1761,18 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22">
         <f>SUM(C2:C27)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D28" s="22">
         <f>SUM(D2:D27)</f>
-        <v>45.5</v>
+        <v>53.5</v>
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
@@ -1844,11 +1816,11 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2914.48</v>
+        <v>2928.48</v>
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1839,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>2204.48</v>
+        <v>2218.48</v>
       </c>
     </row>
   </sheetData>
@@ -1887,19 +1859,19 @@
       <selection pane="bottomLeft" activeCell="G19" activeCellId="1" sqref="G15 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>41308</v>
       </c>
@@ -1960,7 +1932,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>41309</v>
       </c>
@@ -1974,7 +1946,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>41310</v>
       </c>
@@ -1988,7 +1960,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41311</v>
       </c>
@@ -2002,7 +1974,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>41312</v>
       </c>
@@ -2016,7 +1988,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>41313</v>
       </c>
@@ -2030,7 +2002,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>41314</v>
       </c>
@@ -2044,7 +2016,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>41315</v>
       </c>
@@ -2058,7 +2030,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>41316</v>
       </c>
@@ -2072,7 +2044,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>41317</v>
       </c>
@@ -2086,7 +2058,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>41318</v>
       </c>
@@ -2100,7 +2072,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>41319</v>
       </c>
@@ -2114,7 +2086,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>41320</v>
       </c>
@@ -2128,7 +2100,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>41321</v>
       </c>
@@ -2142,7 +2114,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>41322</v>
       </c>
@@ -2156,7 +2128,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>41323</v>
       </c>
@@ -2170,7 +2142,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>41324</v>
       </c>
@@ -2184,7 +2156,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>41325</v>
       </c>
@@ -2198,7 +2170,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>41326</v>
       </c>
@@ -2212,7 +2184,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>41327</v>
       </c>
@@ -2226,7 +2198,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>41328</v>
       </c>
@@ -2240,7 +2212,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>41329</v>
       </c>
@@ -2254,7 +2226,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>41330</v>
       </c>
@@ -2268,7 +2240,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>41331</v>
       </c>
@@ -2282,7 +2254,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>41332</v>
       </c>
@@ -2296,7 +2268,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>41333</v>
       </c>
@@ -2321,7 +2293,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>21</v>
       </c>
@@ -2380,7 +2352,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -1049,7 +1049,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1673,10 +1673,16 @@
       <c r="D22" s="1">
         <v>8</v>
       </c>
+      <c r="E22" s="1">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1">
+        <v>12</v>
+      </c>
       <c r="N22" s="15"/>
       <c r="O22" s="17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="P22" s="5"/>
     </row>
@@ -1687,10 +1693,16 @@
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.5</v>
+      </c>
       <c r="N23" s="15"/>
       <c r="O23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="P23" s="5"/>
     </row>
@@ -1768,19 +1780,19 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22">
         <f>SUM(C2:C27)</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D28" s="22">
         <f>SUM(D2:D27)</f>
-        <v>53.5</v>
+        <v>57</v>
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" ref="G28:N28" si="1">SUM(G2:G27)</f>
@@ -1816,7 +1828,7 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2928.48</v>
+        <v>2961.98</v>
       </c>
       <c r="P28" s="5"/>
     </row>
@@ -1839,7 +1851,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>2218.48</v>
+        <v>2251.98</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -1049,7 +1049,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,10 +1699,13 @@
       <c r="D23" s="1">
         <v>3.5</v>
       </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
       <c r="N23" s="15"/>
       <c r="O23" s="17">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>29.5</v>
       </c>
       <c r="P23" s="5"/>
     </row>
@@ -1788,7 +1791,7 @@
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
@@ -1828,7 +1831,7 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2961.98</v>
+        <v>2981.98</v>
       </c>
       <c r="P28" s="5"/>
     </row>
@@ -1851,7 +1854,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>2251.98</v>
+        <v>2271.98</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/花费.xlsx
+++ b/平时花费/花费.xlsx
@@ -243,6 +243,51 @@
             <charset val="134"/>
           </rPr>
           <t>酒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>指甲剪</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>蚂蚁花呗还款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>键盘清洁泥</t>
         </r>
       </text>
     </comment>
@@ -1048,8 +1093,8 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1653,10 +1698,13 @@
       <c r="I21" s="1">
         <v>60</v>
       </c>
+      <c r="K21" s="1">
+        <v>39.9</v>
+      </c>
       <c r="N21" s="15"/>
       <c r="O21" s="17">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>346.9</v>
       </c>
       <c r="P21" s="5"/>
     </row>
@@ -1702,10 +1750,16 @@
       <c r="E23" s="1">
         <v>20</v>
       </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
       <c r="N23" s="15"/>
       <c r="O23" s="17">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>41.5</v>
       </c>
       <c r="P23" s="5"/>
     </row>
@@ -1716,10 +1770,13 @@
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E24" s="1">
+        <v>15</v>
+      </c>
       <c r="N24" s="15"/>
       <c r="O24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P24" s="5"/>
     </row>
@@ -1730,10 +1787,19 @@
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G25" s="1">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11</v>
+      </c>
+      <c r="K25" s="1">
+        <v>682.99</v>
+      </c>
       <c r="N25" s="15"/>
       <c r="O25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>708.99</v>
       </c>
       <c r="P25" s="5"/>
     </row>
@@ -1744,10 +1810,28 @@
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>17</v>
+      </c>
+      <c r="K26" s="1">
+        <v>19.899999999999999</v>
+      </c>
       <c r="N26" s="15"/>
       <c r="O26" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.9</v>
       </c>
       <c r="P26" s="5"/>
     </row>
@@ -1758,9 +1842,13 @@
       <c r="B27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="19">
+        <v>6</v>
+      </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="19">
+        <v>13</v>
+      </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -1772,7 +1860,7 @@
       <c r="N27" s="20"/>
       <c r="O27" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P27" s="5"/>
     </row>
@@ -1783,23 +1871,23 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22">
         <f>SUM(C2:C27)</f>
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D28" s="22">
         <f>SUM(D2:D27)</f>
-        <v>57</v>
+        <v>60.5</v>
       </c>
       <c r="E28" s="22">
         <f>SUM(E2:E27)</f>
-        <v>280</v>
+        <v>323.5</v>
       </c>
       <c r="F28" s="22">
         <f>SUM(F2:F27)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" ref="G28:N28" si="1">SUM(G2:G27)</f>
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
@@ -1807,7 +1895,7 @@
       </c>
       <c r="I28" s="22">
         <f t="shared" si="1"/>
-        <v>132.5</v>
+        <v>143.5</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="1"/>
@@ -1815,7 +1903,7 @@
       </c>
       <c r="K28" s="22">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>955.79</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="1"/>
@@ -1831,7 +1919,7 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="0"/>
-        <v>2981.98</v>
+        <v>3840.77</v>
       </c>
       <c r="P28" s="5"/>
     </row>
@@ -1854,7 +1942,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3">
         <f>O28-J28</f>
-        <v>2271.98</v>
+        <v>3130.77</v>
       </c>
     </row>
   </sheetData>
